--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_백제.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_백제.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>백제 건국
-1. 498년 : 동성왕
-2. -18년 : 온조왕
-3. 375년 : 근초고왕</t>
+1. -18년 : 온조왕
+2. 493년 : 동성왕
+3. 261년 : 고이왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, -18년 : 온조왕</t>
+          <t>1, -18년 : 온조왕</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>백제 관등제 정비 및 공복제 도입
-1. 371년 : 근초고왕
-2. 660년 : 멸망
+1. 372년 : 근초고왕
+2. 493년 : 동성왕
 3. 260년 : 고이왕</t>
         </is>
       </c>
@@ -479,9 +479,9 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>백제 6좌평 설치
-1. 384년 : 침류왕
+1. 526년 : 성왕
 2. 260년 : 고이왕
-3. 261년 : 고이왕</t>
+3. 262년 : 고이왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>백제 남당 설치
-1. 538년 : 성왕
-2. 472년 : 개로왕
-3. 261년 : 고이왕</t>
+1. 261년 : 고이왕
+2. 372년 : 근초고왕
+3. 660년 : 의자왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 261년 : 고이왕</t>
+          <t>1, 261년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>백제 율령 반포
-1. 375년 : 근초고왕
-2. 551년 : 성왕
-3. 262년 : 고이왕</t>
+1. 262년 : 고이왕
+2. 538년 : 성왕
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 262년 : 고이왕</t>
+          <t>1, 262년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -525,8 +525,8 @@
         <is>
           <t>백제 마한 전역 통합
 1. 369년 : 근초고왕
-2. 433년 : 비유왕
-3. 660년 : 멸망</t>
+2. 372년 : 근초고왕
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -540,8 +540,8 @@
         <is>
           <t>백제 일본에 칠지도 하사
 1. 369년 : 근초고왕
-2. 525년 : 성왕
-3. 660년 : 의자왕</t>
+2. 526년 : 성왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>고구려 고국원왕 전사
-1. 660년 : 멸망
-2. 371년 : 근초고왕
-3. 369년 : 근초고왕</t>
+1. 371년 : 근초고왕
+2. 552년 : 성왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 371년 : 근초고왕</t>
+          <t>1, 371년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -569,8 +569,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>백제 동진과 외교 관계 수립
-1. 659년 : 의자왕
-2. 538년 : 성왕
+1. 660년 : 의자왕
+2. 565년 : 위덕왕
 3. 372년 : 근초고왕</t>
         </is>
       </c>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>고흥 역사서 서기 편찬
-1. 660년 : 멸망
-2. 262년 : 고이왕
-3. 375년 : 근초고왕</t>
+1. 433년 : 비유왕
+2. 375년 : 근초고왕
+3. 660년 : 의자왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 375년 : 근초고왕</t>
+          <t>2, 375년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>동진의 마라난타 백제에 불교 전래
-1. 659년 : 의자왕
-2. 526년 : 성왕
-3. 384년 : 침류왕</t>
+1. 384년 : 침류왕
+2. 659년 : 의자왕
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 384년 : 침류왕</t>
+          <t>1, 384년 : 침류왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 433년 : 비유왕
-2. 372년 : 근초고왕
-3. 631년 : 무왕</t>
+1. 371년 : 근초고왕
+2. 660년 : 의자왕
+3. 433년 : 비유왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 433년 : 비유왕</t>
+          <t>3, 433년 : 비유왕</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>백제 북위에 원병 요청
-1. 375년 : 근초고왕
-2. 475년 : 문주왕
-3. 472년 : 개로왕</t>
+1. 384년 : 침류왕
+2. 472년 : 개로왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, 472년 : 개로왕</t>
+          <t>2, 472년 : 개로왕</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>백제 웅진 천도
-1. 472년 : 개로왕
-2. 475년 : 문주왕
-3. 260년 : 고이왕</t>
+1. 525년 : 성왕
+2. 551년 : 성왕
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 475년 : 문주왕</t>
+          <t>3, 475년 : 문주왕</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>백제 신라 결혼 동맹 체결
-1. 552년 : 성왕
-2. 493년 : 동성왕
-3. 551년 : 성왕</t>
+1. 493년 : 동성왕
+2. 642년 : 의자왕
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, 493년 : 동성왕</t>
+          <t>1, 493년 : 동성왕</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>백제 탐라 복속
-1. 372년 : 근초고왕
-2. 498년 : 동성왕
-3. 660년 : 의자왕</t>
+1. 498년 : 동성왕
+2. 565년 : 위덕왕
+3. 260년 : 고이왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 498년 : 동성왕</t>
+          <t>1, 498년 : 동성왕</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>백제 무령왕릉 축조
-1. 525년 : 성왕
-2. 645년 : 의자왕
-3. 261년 : 고이왕</t>
+1. 551년 : 성왕
+2. 525년 : 성왕
+3. 659년 : 의자왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, 525년 : 성왕</t>
+          <t>2, 525년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>백제 겸익 인도의 율장 번역
-1. 660년 : 멸망
-2. 631년 : 무왕
-3. 526년 : 성왕</t>
+1. 526년 : 성왕
+2. 660년 : 멸망
+3. 645년 : 의자왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 526년 : 성왕</t>
+          <t>1, 526년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>백제 사비 천도
-1. 498년 : 동성왕
-2. 634년 : 무왕
-3. 538년 : 성왕</t>
+1. 372년 : 근초고왕
+2. 538년 : 성왕
+3. 634년 : 무왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 538년 : 성왕</t>
+          <t>2, 538년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>백제 남부여로 국호 개칭
-1. 660년 : 의자왕
-2. 538년 : 성왕
-3. 433년 : 비유왕</t>
+1. 538년 : 성왕
+2. 475년 : 문주왕
+3. 526년 : 성왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 538년 : 성왕</t>
+          <t>1, 538년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>백제 신라의 한강 회복
-1. 645년 : 의자왕
-2. 551년 : 성왕
-3. 660년 : 멸망</t>
+1. 369년 : 근초고왕
+2. 565년 : 위덕왕
+3. 551년 : 성왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 551년 : 성왕</t>
+          <t>3, 551년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <is>
           <t>백제 노리사치계 일본에 불교 전파
 1. 369년 : 근초고왕
-2. 525년 : 성왕
+2. 260년 : 고이왕
 3. 551년 : 성왕</t>
         </is>
       </c>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>백제 성왕 관산성 전투 전사
-1. 538년 : 성왕
-2. 526년 : 성왕
-3. 552년 : 성왕</t>
+1. 552년 : 성왕
+2. 525년 : 성왕
+3. 631년 : 무왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 552년 : 성왕</t>
+          <t>1, 552년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -794,9 +794,9 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>백제 창왕명 석조 사리감 제작
-1. 498년 : 동성왕
+1. 472년 : 개로왕
 2. 565년 : 위덕왕
-3. 642년 : 의자왕</t>
+3. 498년 : 동성왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -810,7 +810,7 @@
         <is>
           <t>백제 왕흥사 준공
 1. 645년 : 의자왕
-2. 369년 : 근초고왕
+2. 433년 : 비유왕
 3. 631년 : 무왕</t>
         </is>
       </c>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>백제 익산으로 천도 시도 실패
-1. 634년 : 무왕
-2. 262년 : 고이왕
-3. 645년 : 의자왕</t>
+1. 526년 : 성왕
+2. 634년 : 무왕
+3. 472년 : 개로왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1, 634년 : 무왕</t>
+          <t>2, 634년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>백제 신라의 대야성 함락
-1. 525년 : 성왕
+1. 642년 : 의자왕
 2. 375년 : 근초고왕
-3. 642년 : 의자왕</t>
+3. 472년 : 개로왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 642년 : 의자왕</t>
+          <t>1, 642년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>백제 사택지적비 건립
-1. 660년 : 의자왕
-2. 525년 : 성왕
-3. 645년 : 의자왕</t>
+1. 493년 : 동성왕
+2. 645년 : 의자왕
+3. 433년 : 비유왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 645년 : 의자왕</t>
+          <t>2, 645년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -869,9 +869,9 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>백제 황산벌 전투
-1. 472년 : 개로왕
+1. 475년 : 문주왕
 2. 659년 : 의자왕
-3. 631년 : 무왕</t>
+3. 551년 : 성왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>백제 멸망
-1. 642년 : 의자왕
-2. 645년 : 의자왕
-3. 660년 : 의자왕</t>
+1. 660년 : 의자왕
+2. 498년 : 동성왕
+3. 493년 : 동성왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 660년 : 의자왕</t>
+          <t>1, 660년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
           <t>당의 웅진도독부 설치
 1. 369년 : 근초고왕
 2. 660년 : 멸망
-3. 642년 : 의자왕</t>
+3. 659년 : 의자왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -914,9 +914,9 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>백제 부흥 운동
-1. 384년 : 침류왕
+1. 433년 : 비유왕
 2. 660년 : 멸망
-3. 262년 : 고이왕</t>
+3. 475년 : 문주왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -931,7 +931,7 @@
           <t>백제 부흥세력의 백강 전투 패배
 1. 526년 : 성왕
 2. 660년 : 멸망
-3. 565년 : 위덕왕</t>
+3. 371년 : 근초고왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">

--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_백제.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_백제.xlsx
@@ -451,7 +451,7 @@
           <t>백제 건국
 1. -18년 : 온조왕
 2. 493년 : 동성왕
-3. 261년 : 고이왕</t>
+3. 472년 : 개로왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>백제 관등제 정비 및 공복제 도입
-1. 372년 : 근초고왕
-2. 493년 : 동성왕
-3. 260년 : 고이왕</t>
+1. 659년 : 의자왕
+2. 260년 : 고이왕
+3. 538년 : 성왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 260년 : 고이왕</t>
+          <t>2, 260년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
           <t>백제 6좌평 설치
 1. 526년 : 성왕
 2. 260년 : 고이왕
-3. 262년 : 고이왕</t>
+3. 634년 : 무왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>백제 남당 설치
-1. 261년 : 고이왕
-2. 372년 : 근초고왕
-3. 660년 : 의자왕</t>
+1. 375년 : 근초고왕
+2. 538년 : 성왕
+3. 261년 : 고이왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, 261년 : 고이왕</t>
+          <t>3, 261년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>백제 율령 반포
-1. 262년 : 고이왕
-2. 538년 : 성왕
-3. 475년 : 문주왕</t>
+1. 498년 : 동성왕
+2. 262년 : 고이왕
+3. 645년 : 의자왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 262년 : 고이왕</t>
+          <t>2, 262년 : 고이왕</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>백제 마한 전역 통합
-1. 369년 : 근초고왕
-2. 372년 : 근초고왕
-3. 475년 : 문주왕</t>
+1. 551년 : 성왕
+2. 371년 : 근초고왕
+3. 369년 : 근초고왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 369년 : 근초고왕</t>
+          <t>3, 369년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>백제 일본에 칠지도 하사
-1. 369년 : 근초고왕
-2. 526년 : 성왕
-3. 525년 : 성왕</t>
+1. 260년 : 고이왕
+2. 369년 : 근초고왕
+3. 659년 : 의자왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 369년 : 근초고왕</t>
+          <t>2, 369년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>고구려 고국원왕 전사
-1. 371년 : 근초고왕
-2. 552년 : 성왕
-3. 525년 : 성왕</t>
+1. 472년 : 개로왕
+2. 498년 : 동성왕
+3. 371년 : 근초고왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 371년 : 근초고왕</t>
+          <t>3, 371년 : 근초고왕</t>
         </is>
       </c>
     </row>
@@ -569,8 +569,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>백제 동진과 외교 관계 수립
-1. 660년 : 의자왕
-2. 565년 : 위덕왕
+1. 634년 : 무왕
+2. 260년 : 고이왕
 3. 372년 : 근초고왕</t>
         </is>
       </c>
@@ -584,9 +584,9 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>고흥 역사서 서기 편찬
-1. 433년 : 비유왕
+1. 372년 : 근초고왕
 2. 375년 : 근초고왕
-3. 660년 : 의자왕</t>
+3. -18년 : 온조왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>동진의 마라난타 백제에 불교 전래
-1. 384년 : 침류왕
-2. 659년 : 의자왕
-3. 475년 : 문주왕</t>
+1. 372년 : 근초고왕
+2. 493년 : 동성왕
+3. 384년 : 침류왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 384년 : 침류왕</t>
+          <t>3, 384년 : 침류왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>나제 동맹 체결
-1. 371년 : 근초고왕
-2. 660년 : 의자왕
-3. 433년 : 비유왕</t>
+1. 433년 : 비유왕
+2. 526년 : 성왕
+3. 371년 : 근초고왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 433년 : 비유왕</t>
+          <t>1, 433년 : 비유왕</t>
         </is>
       </c>
     </row>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>백제 북위에 원병 요청
-1. 384년 : 침류왕
+1. 371년 : 근초고왕
 2. 472년 : 개로왕
-3. 525년 : 성왕</t>
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>백제 웅진 천도
-1. 525년 : 성왕
-2. 551년 : 성왕
-3. 475년 : 문주왕</t>
+1. 475년 : 문주왕
+2. 538년 : 성왕
+3. 260년 : 고이왕</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 475년 : 문주왕</t>
+          <t>1, 475년 : 문주왕</t>
         </is>
       </c>
     </row>
@@ -660,8 +660,8 @@
         <is>
           <t>백제 신라 결혼 동맹 체결
 1. 493년 : 동성왕
-2. 642년 : 의자왕
-3. 660년 : 멸망</t>
+2. 384년 : 침류왕
+3. 526년 : 성왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -675,8 +675,8 @@
         <is>
           <t>백제 탐라 복속
 1. 498년 : 동성왕
-2. 565년 : 위덕왕
-3. 260년 : 고이왕</t>
+2. 551년 : 성왕
+3. 565년 : 위덕왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>백제 무령왕릉 축조
-1. 551년 : 성왕
-2. 525년 : 성왕
-3. 659년 : 의자왕</t>
+1. 371년 : 근초고왕
+2. 372년 : 근초고왕
+3. 525년 : 성왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 525년 : 성왕</t>
+          <t>3, 525년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -705,8 +705,8 @@
         <is>
           <t>백제 겸익 인도의 율장 번역
 1. 526년 : 성왕
-2. 660년 : 멸망
-3. 645년 : 의자왕</t>
+2. 433년 : 비유왕
+3. 262년 : 고이왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>백제 사비 천도
-1. 372년 : 근초고왕
-2. 538년 : 성왕
-3. 634년 : 무왕</t>
+1. 262년 : 고이왕
+2. 525년 : 성왕
+3. 538년 : 성왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 538년 : 성왕</t>
+          <t>3, 538년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -735,8 +735,8 @@
         <is>
           <t>백제 남부여로 국호 개칭
 1. 538년 : 성왕
-2. 475년 : 문주왕
-3. 526년 : 성왕</t>
+2. 552년 : 성왕
+3. 642년 : 의자왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>백제 신라의 한강 회복
-1. 369년 : 근초고왕
-2. 565년 : 위덕왕
-3. 551년 : 성왕</t>
+1. 384년 : 침류왕
+2. 551년 : 성왕
+3. 552년 : 성왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 551년 : 성왕</t>
+          <t>2, 551년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>백제 노리사치계 일본에 불교 전파
-1. 369년 : 근초고왕
-2. 260년 : 고이왕
-3. 551년 : 성왕</t>
+1. 551년 : 성왕
+2. 565년 : 위덕왕
+3. -18년 : 온조왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 551년 : 성왕</t>
+          <t>1, 551년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>백제 성왕 관산성 전투 전사
-1. 552년 : 성왕
-2. 525년 : 성왕
-3. 631년 : 무왕</t>
+1. 565년 : 위덕왕
+2. 645년 : 의자왕
+3. 552년 : 성왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 552년 : 성왕</t>
+          <t>3, 552년 : 성왕</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>백제 창왕명 석조 사리감 제작
-1. 472년 : 개로왕
-2. 565년 : 위덕왕
-3. 498년 : 동성왕</t>
+1. 526년 : 성왕
+2. 659년 : 의자왕
+3. 565년 : 위덕왕</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 565년 : 위덕왕</t>
+          <t>3, 565년 : 위덕왕</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>백제 왕흥사 준공
-1. 645년 : 의자왕
-2. 433년 : 비유왕
-3. 631년 : 무왕</t>
+1. 631년 : 무왕
+2. 375년 : 근초고왕
+3. 551년 : 성왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 631년 : 무왕</t>
+          <t>1, 631년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>백제 익산으로 천도 시도 실패
-1. 526년 : 성왕
+1. 551년 : 성왕
 2. 634년 : 무왕
-3. 472년 : 개로왕</t>
+3. 631년 : 무왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>백제 신라의 대야성 함락
-1. 642년 : 의자왕
-2. 375년 : 근초고왕
-3. 472년 : 개로왕</t>
+1. 645년 : 의자왕
+2. 642년 : 의자왕
+3. 384년 : 침류왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 642년 : 의자왕</t>
+          <t>2, 642년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>백제 사택지적비 건립
-1. 493년 : 동성왕
-2. 645년 : 의자왕
+1. 645년 : 의자왕
+2. 493년 : 동성왕
 3. 433년 : 비유왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 645년 : 의자왕</t>
+          <t>1, 645년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>백제 황산벌 전투
-1. 475년 : 문주왕
-2. 659년 : 의자왕
-3. 551년 : 성왕</t>
+1. 526년 : 성왕
+2. 261년 : 고이왕
+3. 659년 : 의자왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 659년 : 의자왕</t>
+          <t>3, 659년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>백제 멸망
-1. 660년 : 의자왕
-2. 498년 : 동성왕
-3. 493년 : 동성왕</t>
+1. 372년 : 근초고왕
+2. 262년 : 고이왕
+3. 660년 : 의자왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 660년 : 의자왕</t>
+          <t>3, 660년 : 의자왕</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>당의 웅진도독부 설치
-1. 369년 : 근초고왕
-2. 660년 : 멸망
-3. 659년 : 의자왕</t>
+1. 660년 : 멸망
+2. 372년 : 근초고왕
+3. 369년 : 근초고왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>1, 660년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>백제 부흥 운동
-1. 433년 : 비유왕
-2. 660년 : 멸망
-3. 475년 : 문주왕</t>
+1. 660년 : 멸망
+2. 472년 : 개로왕
+3. 384년 : 침류왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>1, 660년 : 멸망</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>백제 부흥세력의 백강 전투 패배
-1. 526년 : 성왕
-2. 660년 : 멸망
-3. 371년 : 근초고왕</t>
+1. 642년 : 의자왕
+2. 645년 : 의자왕
+3. 660년 : 멸망</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 660년 : 멸망</t>
+          <t>3, 660년 : 멸망</t>
         </is>
       </c>
     </row>
